--- a/public/data/soil/soil_table_sierra_leone.xlsx
+++ b/public/data/soil/soil_table_sierra_leone.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -668,7 +668,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58821.9</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>79033.8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61636.7</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>74955.7</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>68090.9</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>67578.6</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>105243.7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>554.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>86697.9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>83752.3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40728.2</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1545.7</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>111305.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49785.1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>153.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>13350.5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>622.6</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
